--- a/data/raw/cbo/cbo_econ_proj_quarterly.xlsx
+++ b/data/raw/cbo/cbo_econ_proj_quarterly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\data\raw\cbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/raw/cbo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43AA6EB-2010-44BA-814E-54B559A87D87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4E792-96CA-4544-AE23-63E8A9798EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52290" yWindow="10635" windowWidth="9600" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cbo_econ_proj_quarterly" sheetId="1" r:id="rId1"/>
@@ -926,18 +926,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,2203 +987,3019 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B2">
+        <v>19190.400000000001</v>
+      </c>
+      <c r="C2">
+        <v>17925.3</v>
+      </c>
+      <c r="D2">
+        <v>18116.7</v>
+      </c>
+      <c r="E2">
+        <v>19395.400000000001</v>
+      </c>
+      <c r="F2">
+        <v>105.355</v>
+      </c>
+      <c r="G2">
+        <v>107.04</v>
+      </c>
+      <c r="H2">
+        <v>13104.4</v>
+      </c>
+      <c r="I2">
+        <v>12438.9</v>
+      </c>
+      <c r="J2">
+        <v>3157.3</v>
+      </c>
+      <c r="K2">
+        <v>1186.4000000000001</v>
+      </c>
+      <c r="L2">
+        <v>1968.9</v>
+      </c>
+      <c r="M2">
+        <v>3368.7</v>
+      </c>
+      <c r="N2">
+        <v>1248.4000000000001</v>
+      </c>
+      <c r="O2">
+        <v>2120.3000000000002</v>
+      </c>
+      <c r="P2">
+        <v>243.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B3">
+        <v>19356.599999999999</v>
+      </c>
+      <c r="C3">
+        <v>18021</v>
+      </c>
+      <c r="D3">
+        <v>18191.7</v>
+      </c>
+      <c r="E3">
+        <v>19539.900000000001</v>
+      </c>
+      <c r="F3">
+        <v>105.596</v>
+      </c>
+      <c r="G3">
+        <v>107.39400000000001</v>
+      </c>
+      <c r="H3">
+        <v>13212.5</v>
+      </c>
+      <c r="I3">
+        <v>12512.9</v>
+      </c>
+      <c r="J3">
+        <v>3168</v>
+      </c>
+      <c r="K3">
+        <v>1195.9000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1970.1</v>
+      </c>
+      <c r="M3">
+        <v>3392.9</v>
+      </c>
+      <c r="N3">
+        <v>1263.5999999999999</v>
+      </c>
+      <c r="O3">
+        <v>2129.3000000000002</v>
+      </c>
+      <c r="P3">
+        <v>244.065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B4">
+        <v>19611.7</v>
+      </c>
+      <c r="C4">
+        <v>18163.599999999999</v>
+      </c>
+      <c r="D4">
+        <v>18269.900000000001</v>
+      </c>
+      <c r="E4">
+        <v>19726.5</v>
+      </c>
+      <c r="F4">
+        <v>106.033</v>
+      </c>
+      <c r="G4">
+        <v>108.032</v>
+      </c>
+      <c r="H4">
+        <v>13345.1</v>
+      </c>
+      <c r="I4">
+        <v>12586.3</v>
+      </c>
+      <c r="J4">
+        <v>3167.1</v>
+      </c>
+      <c r="K4">
+        <v>1196.0999999999999</v>
+      </c>
+      <c r="L4">
+        <v>1969</v>
+      </c>
+      <c r="M4">
+        <v>3415.4</v>
+      </c>
+      <c r="N4">
+        <v>1270.2</v>
+      </c>
+      <c r="O4">
+        <v>2145.1999999999998</v>
+      </c>
+      <c r="P4">
+        <v>245.36799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B5">
+        <v>19918.900000000001</v>
+      </c>
+      <c r="C5">
+        <v>18322.5</v>
+      </c>
+      <c r="D5">
+        <v>18351.2</v>
+      </c>
+      <c r="E5">
+        <v>19950.099999999999</v>
+      </c>
+      <c r="F5">
+        <v>106.733</v>
+      </c>
+      <c r="G5">
+        <v>108.715</v>
+      </c>
+      <c r="H5">
+        <v>13586.3</v>
+      </c>
+      <c r="I5">
+        <v>12729.7</v>
+      </c>
+      <c r="J5">
+        <v>3186.1</v>
+      </c>
+      <c r="K5">
+        <v>1209.8</v>
+      </c>
+      <c r="L5">
+        <v>1974.5</v>
+      </c>
+      <c r="M5">
+        <v>3471</v>
+      </c>
+      <c r="N5">
+        <v>1295.0999999999999</v>
+      </c>
+      <c r="O5">
+        <v>2175.9</v>
+      </c>
+      <c r="P5">
+        <v>247.273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B6">
+        <v>20163.2</v>
+      </c>
+      <c r="C6">
+        <v>18438.3</v>
+      </c>
+      <c r="D6">
+        <v>18436.099999999999</v>
+      </c>
+      <c r="E6">
+        <v>20160.8</v>
+      </c>
+      <c r="F6">
+        <v>107.401</v>
+      </c>
+      <c r="G6">
+        <v>109.34099999999999</v>
+      </c>
+      <c r="H6">
+        <v>13728.4</v>
+      </c>
+      <c r="I6">
+        <v>12782.9</v>
+      </c>
+      <c r="J6">
+        <v>3201.1</v>
+      </c>
+      <c r="K6">
+        <v>1218.0999999999999</v>
+      </c>
+      <c r="L6">
+        <v>1981.2</v>
+      </c>
+      <c r="M6">
+        <v>3521.4</v>
+      </c>
+      <c r="N6">
+        <v>1318.2</v>
+      </c>
+      <c r="O6">
+        <v>2203.1999999999998</v>
+      </c>
+      <c r="P6">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B7">
+        <v>20510.2</v>
+      </c>
+      <c r="C7">
+        <v>18598.099999999999</v>
+      </c>
+      <c r="D7">
+        <v>18524.900000000001</v>
+      </c>
+      <c r="E7">
+        <v>20429.5</v>
+      </c>
+      <c r="F7">
+        <v>107.988</v>
+      </c>
+      <c r="G7">
+        <v>110.209</v>
+      </c>
+      <c r="H7">
+        <v>13939.8</v>
+      </c>
+      <c r="I7">
+        <v>12909.2</v>
+      </c>
+      <c r="J7">
+        <v>3221.4</v>
+      </c>
+      <c r="K7">
+        <v>1229.9000000000001</v>
+      </c>
+      <c r="L7">
+        <v>1989.9</v>
+      </c>
+      <c r="M7">
+        <v>3577.1</v>
+      </c>
+      <c r="N7">
+        <v>1340.4</v>
+      </c>
+      <c r="O7">
+        <v>2236.6999999999998</v>
+      </c>
+      <c r="P7">
+        <v>250.578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B8">
+        <v>20749.8</v>
+      </c>
+      <c r="C8">
+        <v>18732.7</v>
+      </c>
+      <c r="D8">
+        <v>18617</v>
+      </c>
+      <c r="E8">
+        <v>20621.7</v>
+      </c>
+      <c r="F8">
+        <v>108.413</v>
+      </c>
+      <c r="G8">
+        <v>110.765</v>
+      </c>
+      <c r="H8">
+        <v>14114.6</v>
+      </c>
+      <c r="I8">
+        <v>13019.8</v>
+      </c>
+      <c r="J8">
+        <v>3238</v>
+      </c>
+      <c r="K8">
+        <v>1238.7</v>
+      </c>
+      <c r="L8">
+        <v>1997.7</v>
+      </c>
+      <c r="M8">
+        <v>3622.6</v>
+      </c>
+      <c r="N8">
+        <v>1358.6</v>
+      </c>
+      <c r="O8">
+        <v>2263.9</v>
+      </c>
+      <c r="P8">
+        <v>251.828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B9">
+        <v>20897.8</v>
+      </c>
+      <c r="C9">
+        <v>18783.5</v>
+      </c>
+      <c r="D9">
+        <v>18711</v>
+      </c>
+      <c r="E9">
+        <v>20817.2</v>
+      </c>
+      <c r="F9">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="G9">
+        <v>111.212</v>
+      </c>
+      <c r="H9">
+        <v>14211.9</v>
+      </c>
+      <c r="I9">
+        <v>13066.3</v>
+      </c>
+      <c r="J9">
+        <v>3234.9</v>
+      </c>
+      <c r="K9">
+        <v>1242.0999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1991.4</v>
+      </c>
+      <c r="M9">
+        <v>3644.8</v>
+      </c>
+      <c r="N9">
+        <v>1371.8</v>
+      </c>
+      <c r="O9">
+        <v>2273</v>
+      </c>
+      <c r="P9">
+        <v>252.75899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B10">
+        <v>21098.799999999999</v>
+      </c>
+      <c r="C10">
+        <v>18927.3</v>
+      </c>
+      <c r="D10">
+        <v>18806.400000000001</v>
+      </c>
+      <c r="E10">
+        <v>20964.099999999999</v>
+      </c>
+      <c r="F10">
+        <v>108.879</v>
+      </c>
+      <c r="G10">
+        <v>111.504</v>
+      </c>
+      <c r="H10">
+        <v>14266.3</v>
+      </c>
+      <c r="I10">
+        <v>13103.3</v>
+      </c>
+      <c r="J10">
+        <v>3258.1</v>
+      </c>
+      <c r="K10">
+        <v>1248.8</v>
+      </c>
+      <c r="L10">
+        <v>2007.9</v>
+      </c>
+      <c r="M10">
+        <v>3683.1</v>
+      </c>
+      <c r="N10">
+        <v>1394.7</v>
+      </c>
+      <c r="O10">
+        <v>2288.4</v>
+      </c>
+      <c r="P10">
+        <v>253.31100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B11">
+        <v>21340.3</v>
+      </c>
+      <c r="C11">
+        <v>19021.900000000001</v>
+      </c>
+      <c r="D11">
+        <v>18903.099999999999</v>
+      </c>
+      <c r="E11">
+        <v>21207.1</v>
+      </c>
+      <c r="F11">
+        <v>109.52200000000001</v>
+      </c>
+      <c r="G11">
+        <v>112.173</v>
+      </c>
+      <c r="H11">
+        <v>14511.2</v>
+      </c>
+      <c r="I11">
+        <v>13250</v>
+      </c>
+      <c r="J11">
+        <v>3296.6</v>
+      </c>
+      <c r="K11">
+        <v>1273.9000000000001</v>
+      </c>
+      <c r="L11">
+        <v>2021.4</v>
+      </c>
+      <c r="M11">
+        <v>3742.3</v>
+      </c>
+      <c r="N11">
+        <v>1415.2</v>
+      </c>
+      <c r="O11">
+        <v>2327.1</v>
+      </c>
+      <c r="P11">
+        <v>255.13900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B12">
+        <v>21542.5</v>
+      </c>
+      <c r="C12">
+        <v>19121.099999999999</v>
+      </c>
+      <c r="D12">
+        <v>19000.900000000001</v>
+      </c>
+      <c r="E12">
+        <v>21407</v>
+      </c>
+      <c r="F12">
+        <v>109.928</v>
+      </c>
+      <c r="G12">
+        <v>112.679</v>
+      </c>
+      <c r="H12">
+        <v>14678.2</v>
+      </c>
+      <c r="I12">
+        <v>13353.1</v>
+      </c>
+      <c r="J12">
+        <v>3310.4</v>
+      </c>
+      <c r="K12">
+        <v>1284.4000000000001</v>
+      </c>
+      <c r="L12">
+        <v>2024.9</v>
+      </c>
+      <c r="M12">
+        <v>3772.8</v>
+      </c>
+      <c r="N12">
+        <v>1432.2</v>
+      </c>
+      <c r="O12">
+        <v>2340.5</v>
+      </c>
+      <c r="P12">
+        <v>256.27300000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B13">
+        <v>21729.1</v>
+      </c>
+      <c r="C13">
+        <v>19222</v>
+      </c>
+      <c r="D13">
+        <v>19099.900000000001</v>
+      </c>
+      <c r="E13">
+        <v>21630.7</v>
+      </c>
+      <c r="F13">
+        <v>110.301</v>
+      </c>
+      <c r="G13">
+        <v>113.036</v>
+      </c>
+      <c r="H13">
+        <v>14795</v>
+      </c>
+      <c r="I13">
+        <v>13413.8</v>
+      </c>
+      <c r="J13">
+        <v>3331.1</v>
+      </c>
+      <c r="K13">
+        <v>1295.0999999999999</v>
+      </c>
+      <c r="L13">
+        <v>2035</v>
+      </c>
+      <c r="M13">
+        <v>3813.7</v>
+      </c>
+      <c r="N13">
+        <v>1449.8</v>
+      </c>
+      <c r="O13">
+        <v>2363.9</v>
+      </c>
+      <c r="P13">
+        <v>257.83199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B14">
+        <v>21537.9</v>
+      </c>
+      <c r="C14">
+        <v>18987.900000000001</v>
+      </c>
+      <c r="D14">
+        <v>19197.599999999999</v>
+      </c>
+      <c r="E14">
+        <v>21846.5</v>
+      </c>
+      <c r="F14">
+        <v>110.67</v>
+      </c>
+      <c r="G14">
+        <v>113.404</v>
+      </c>
+      <c r="H14">
+        <v>14555.8</v>
+      </c>
+      <c r="I14">
+        <v>13153</v>
+      </c>
+      <c r="J14">
+        <v>3337</v>
+      </c>
+      <c r="K14">
+        <v>1300.5999999999999</v>
+      </c>
+      <c r="L14">
+        <v>2035.6</v>
+      </c>
+      <c r="M14">
+        <v>3850.5</v>
+      </c>
+      <c r="N14">
+        <v>1459.8</v>
+      </c>
+      <c r="O14">
+        <v>2390.6999999999998</v>
+      </c>
+      <c r="P14">
+        <v>258.60700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B15">
+        <v>19058.2</v>
+      </c>
+      <c r="C15">
+        <v>16867.8</v>
+      </c>
+      <c r="D15">
+        <v>19295.2</v>
+      </c>
+      <c r="E15">
+        <v>22046.5</v>
+      </c>
+      <c r="F15">
+        <v>110.346</v>
+      </c>
+      <c r="G15">
+        <v>112.985</v>
+      </c>
+      <c r="H15">
+        <v>12827.9</v>
+      </c>
+      <c r="I15">
+        <v>11625.1</v>
+      </c>
+      <c r="J15">
+        <v>3268</v>
+      </c>
+      <c r="K15">
+        <v>1330.6</v>
+      </c>
+      <c r="L15">
+        <v>1939.1</v>
+      </c>
+      <c r="M15">
+        <v>3736.8</v>
+      </c>
+      <c r="N15">
+        <v>1493.5</v>
+      </c>
+      <c r="O15">
+        <v>2243.4</v>
+      </c>
+      <c r="P15">
+        <v>257.178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B16">
+        <v>20037.8</v>
+      </c>
+      <c r="C16">
+        <v>17709.599999999999</v>
+      </c>
+      <c r="D16">
+        <v>19393.099999999999</v>
+      </c>
+      <c r="E16">
+        <v>22273.9</v>
+      </c>
+      <c r="F16">
+        <v>110.65300000000001</v>
+      </c>
+      <c r="G16">
+        <v>113.146</v>
+      </c>
+      <c r="H16">
+        <v>13894.8</v>
+      </c>
+      <c r="I16">
+        <v>12557.1</v>
+      </c>
+      <c r="J16">
+        <v>3249.3</v>
+      </c>
+      <c r="K16">
+        <v>1335.8</v>
+      </c>
+      <c r="L16">
+        <v>1915.6</v>
+      </c>
+      <c r="M16">
+        <v>3729.9</v>
+      </c>
+      <c r="N16">
+        <v>1508.1</v>
+      </c>
+      <c r="O16">
+        <v>2221.6999999999998</v>
+      </c>
+      <c r="P16">
+        <v>258.20499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B17">
+        <v>20561.2</v>
+      </c>
+      <c r="C17">
+        <v>18153.099999999999</v>
+      </c>
+      <c r="D17">
+        <v>19490.599999999999</v>
+      </c>
+      <c r="E17">
+        <v>22503.1</v>
+      </c>
+      <c r="F17">
+        <v>111.01600000000001</v>
+      </c>
+      <c r="G17">
+        <v>113.265</v>
+      </c>
+      <c r="H17">
+        <v>14287.3</v>
+      </c>
+      <c r="I17">
+        <v>12869.5</v>
+      </c>
+      <c r="J17">
+        <v>3297.5</v>
+      </c>
+      <c r="K17">
+        <v>1341.2</v>
+      </c>
+      <c r="L17">
+        <v>1958</v>
+      </c>
+      <c r="M17">
+        <v>3772.4</v>
+      </c>
+      <c r="N17">
+        <v>1521.3</v>
+      </c>
+      <c r="O17">
+        <v>2251.1999999999998</v>
+      </c>
+      <c r="P17">
+        <v>259.26400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>44286</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B18" s="2">
         <v>21850.9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C18" s="2">
         <v>19060.3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D18" s="2">
         <v>19502.8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E18" s="2">
         <v>22361.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F18" s="3">
         <v>112.199</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G18" s="3">
         <v>114.64</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H18" s="2">
         <v>14780.5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I18" s="2">
         <v>13173.4</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J18" s="2">
         <v>3370.6</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K18" s="2">
         <v>1399.4</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L18" s="2">
         <v>1974.5</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M18" s="2">
         <v>3912.7</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N18" s="2">
         <v>1573.3</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O18" s="2">
         <v>2339.4</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P18" s="3">
         <v>261.77999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>44377</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B19" s="2">
         <v>22074.9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C19" s="2">
         <v>19178.3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D19" s="2">
         <v>19594.2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E19" s="2">
         <v>22558.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F19" s="3">
         <v>112.664</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G19" s="3">
         <v>115.10299999999999</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H19" s="2">
         <v>14932</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I19" s="2">
         <v>13253.5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J19" s="2">
         <v>3340.6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K19" s="2">
         <v>1364.7</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L19" s="2">
         <v>1977.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M19" s="2">
         <v>3903.2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N19" s="2">
         <v>1542.3</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O19" s="2">
         <v>2360.9</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P19" s="3">
         <v>263.077</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>44469</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B20" s="2">
         <v>22394.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C20" s="2">
         <v>19358.3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D20" s="2">
         <v>19687.7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E20" s="2">
         <v>22781.599999999999</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F20" s="3">
         <v>113.244</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G20" s="3">
         <v>115.684</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H20" s="2">
         <v>15127.6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I20" s="2">
         <v>13358.3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J20" s="2">
         <v>3330.9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K20" s="2">
         <v>1352.7</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L20" s="2">
         <v>1979.8</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M20" s="2">
         <v>3914.5</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N20" s="2">
         <v>1536</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O20" s="2">
         <v>2378.5</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P20" s="3">
         <v>264.58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>44561</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B21" s="2">
         <v>22692.2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C21" s="2">
         <v>19530.8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D21" s="2">
         <v>19783.099999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E21" s="2">
         <v>22992.3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F21" s="3">
         <v>113.691</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G21" s="3">
         <v>116.187</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H21" s="2">
         <v>15325.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I21" s="2">
         <v>13479.9</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J21" s="2">
         <v>3327.2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K21" s="2">
         <v>1346.5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L21" s="2">
         <v>1982.1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M21" s="2">
         <v>3932.7</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N21" s="2">
         <v>1536</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O21" s="2">
         <v>2396.6999999999998</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P21" s="3">
         <v>265.661</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>44651</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B22" s="2">
         <v>22973.9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C22" s="2">
         <v>19672</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D22" s="2">
         <v>19879.599999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E22" s="2">
         <v>23223.9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F22" s="3">
         <v>114.247</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G22" s="3">
         <v>116.785</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H22" s="2">
         <v>15538.6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I22" s="2">
         <v>13600.8</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J22" s="2">
         <v>3325.8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K22" s="2">
         <v>1343</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L22" s="2">
         <v>1984.1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M22" s="2">
         <v>3956.9</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N22" s="2">
         <v>1539.8</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O22" s="2">
         <v>2417.1</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P22" s="3">
         <v>267.07100000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>44742</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B23" s="2">
         <v>23206.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C23" s="2">
         <v>19778.3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D23" s="2">
         <v>19975.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E23" s="2">
         <v>23445.8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F23" s="3">
         <v>114.761</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G23" s="3">
         <v>117.333</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H23" s="2">
         <v>15722.4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I23" s="2">
         <v>13700.1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J23" s="2">
         <v>3324.9</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K23" s="2">
         <v>1339.2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L23" s="2">
         <v>1986.7</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M23" s="2">
         <v>3981.2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N23" s="2">
         <v>1542.3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O23" s="2">
         <v>2438.9</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P23" s="3">
         <v>268.524</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>44834</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B24" s="2">
         <v>23456.2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C24" s="2">
         <v>19896.400000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D24" s="2">
         <v>20069.900000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E24" s="2">
         <v>23668.9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F24" s="3">
         <v>115.286</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G24" s="3">
         <v>117.89100000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H24" s="2">
         <v>15906.1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I24" s="2">
         <v>13797.1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J24" s="2">
         <v>3327</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K24" s="2">
         <v>1337.9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L24" s="2">
         <v>1990</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M24" s="2">
         <v>4010.5</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N24" s="2">
         <v>1548.4</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O24" s="2">
         <v>2462.1</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P24" s="3">
         <v>269.99900000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>44926</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B25" s="2">
         <v>23702.6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C25" s="2">
         <v>20006.8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D25" s="2">
         <v>20163.7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E25" s="2">
         <v>23896.9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F25" s="3">
         <v>115.836</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G25" s="3">
         <v>118.473</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H25" s="2">
         <v>16090.8</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I25" s="2">
         <v>13891</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J25" s="2">
         <v>3329.2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K25" s="2">
         <v>1336.3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L25" s="2">
         <v>1993.6</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M25" s="2">
         <v>4040.7</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N25" s="2">
         <v>1554.4</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O25" s="2">
         <v>2486.3000000000002</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P25" s="3">
         <v>271.512</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>45016</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B26" s="2">
         <v>23929.4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C26" s="2">
         <v>20100</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D26" s="2">
         <v>20257.3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E26" s="2">
         <v>24125.1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F26" s="3">
         <v>116.381</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G26" s="3">
         <v>119.051</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H26" s="2">
         <v>16261</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I26" s="2">
         <v>13972.1</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J26" s="2">
         <v>3333.4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K26" s="2">
         <v>1334.8</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L26" s="2">
         <v>1999.2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M26" s="2">
         <v>4073.6</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N26" s="2">
         <v>1560.5</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O26" s="2">
         <v>2513.1</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P26" s="3">
         <v>273.03699999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>45107</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B27" s="2">
         <v>24183.200000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C27" s="2">
         <v>20212.7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D27" s="2">
         <v>20351.2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E27" s="2">
         <v>24357.3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F27" s="3">
         <v>116.93899999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G27" s="3">
         <v>119.643</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H27" s="2">
         <v>16443</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I27" s="2">
         <v>14061.2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J27" s="2">
         <v>3338.5</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K27" s="2">
         <v>1332</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L27" s="2">
         <v>2006.7</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M27" s="2">
         <v>4108</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N27" s="2">
         <v>1565.2</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O27" s="2">
         <v>2542.8000000000002</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P27" s="3">
         <v>274.58699999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>45199</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B28" s="2">
         <v>24450.1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C28" s="2">
         <v>20333.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D28" s="2">
         <v>20446</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E28" s="2">
         <v>24593.7</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F28" s="3">
         <v>117.504</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G28" s="3">
         <v>120.245</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H28" s="2">
         <v>16637.5</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I28" s="2">
         <v>14159</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J28" s="2">
         <v>3345.3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K28" s="2">
         <v>1330.4</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L28" s="2">
         <v>2014.8</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M28" s="2">
         <v>4145</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N28" s="2">
         <v>1571.4</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O28" s="2">
         <v>2573.6</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P28" s="3">
         <v>276.15100000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>45291</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B29" s="2">
         <v>24725.200000000001</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C29" s="2">
         <v>20457</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D29" s="2">
         <v>20541.7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E29" s="2">
         <v>24835.7</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F29" s="3">
         <v>118.077</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G29" s="3">
         <v>120.864</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H29" s="2">
         <v>16843.7</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I29" s="2">
         <v>14265</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J29" s="2">
         <v>3353.9</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K29" s="2">
         <v>1330.1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L29" s="2">
         <v>2023.4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M29" s="2">
         <v>4184.8</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N29" s="2">
         <v>1579.3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O29" s="2">
         <v>2605.5</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P29" s="3">
         <v>277.72500000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>45382</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B30" s="2">
         <v>24984.799999999999</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C30" s="2">
         <v>20564.099999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D30" s="2">
         <v>20638</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E30" s="2">
         <v>25082.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F30" s="3">
         <v>118.67100000000001</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G30" s="3">
         <v>121.497</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H30" s="2">
         <v>17031.400000000001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I30" s="2">
         <v>14351.7</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J30" s="2">
         <v>3363.9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K30" s="2">
         <v>1330.7</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L30" s="2">
         <v>2032.6</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M30" s="2">
         <v>4226.8999999999996</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N30" s="2">
         <v>1588.3</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O30" s="2">
         <v>2638.5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P30" s="3">
         <v>279.31700000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>45473</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B31" s="2">
         <v>25260.1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C31" s="2">
         <v>20682.2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D31" s="2">
         <v>20734.099999999999</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E31" s="2">
         <v>25331.200000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F31" s="3">
         <v>119.274</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G31" s="3">
         <v>122.134</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H31" s="2">
         <v>17236</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I31" s="2">
         <v>14450.6</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J31" s="2">
         <v>3374.5</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K31" s="2">
         <v>1331.4</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L31" s="2">
         <v>2042.2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M31" s="2">
         <v>4269.8999999999996</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N31" s="2">
         <v>1597.4</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O31" s="2">
         <v>2672.5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P31" s="3">
         <v>280.93099999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>45565</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B32" s="2">
         <v>25537.5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C32" s="2">
         <v>20799.7</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D32" s="2">
         <v>20830.5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E32" s="2">
         <v>25582.799999999999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F32" s="3">
         <v>119.88500000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G32" s="3">
         <v>122.77800000000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H32" s="2">
         <v>17441.7</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I32" s="2">
         <v>14548.7</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J32" s="2">
         <v>3383.7</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K32" s="2">
         <v>1332</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L32" s="2">
         <v>2050.5</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M32" s="2">
         <v>4311.6000000000004</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N32" s="2">
         <v>1606.5</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O32" s="2">
         <v>2705.1</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P32" s="3">
         <v>282.57100000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>45657</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B33" s="2">
         <v>25826.2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C33" s="2">
         <v>20924</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D33" s="2">
         <v>20927.099999999999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E33" s="2">
         <v>25837.4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F33" s="3">
         <v>120.505</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G33" s="3">
         <v>123.428</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H33" s="2">
         <v>17663.7</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I33" s="2">
         <v>14658</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J33" s="2">
         <v>3391.3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K33" s="2">
         <v>1332.5</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L33" s="2">
         <v>2057.3000000000002</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M33" s="2">
         <v>4351.8999999999996</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N33" s="2">
         <v>1615.7</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O33" s="2">
         <v>2736.2</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P33" s="3">
         <v>284.23099999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>45747</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B34" s="2">
         <v>26108.5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C34" s="2">
         <v>21042</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D34" s="2">
         <v>21023.599999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E34" s="2">
         <v>26092.799999999999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F34" s="3">
         <v>121.12</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G34" s="3">
         <v>124.078</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H34" s="2">
         <v>17878.400000000001</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I34" s="2">
         <v>14760.9</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J34" s="2">
         <v>3399.3</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K34" s="2">
         <v>1333.8</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L34" s="2">
         <v>2063.9</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M34" s="2">
         <v>4393</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N34" s="2">
         <v>1625.8</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O34" s="2">
         <v>2767.2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P34" s="3">
         <v>285.90300000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>45838</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B35" s="2">
         <v>26392.3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C35" s="2">
         <v>21158.400000000001</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D35" s="2">
         <v>21118.9</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E35" s="2">
         <v>26350</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F35" s="3">
         <v>121.745</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G35" s="3">
         <v>124.736</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H35" s="2">
         <v>18090.2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I35" s="2">
         <v>14859</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J35" s="2">
         <v>3406.8</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K35" s="2">
         <v>1334.8</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L35" s="2">
         <v>2070.3000000000002</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M35" s="2">
         <v>4433.7</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N35" s="2">
         <v>1635.6</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O35" s="2">
         <v>2798.1</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P35" s="3">
         <v>287.589</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>45930</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B36" s="2">
         <v>26669.9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C36" s="2">
         <v>21268.1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D36" s="2">
         <v>21213.5</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E36" s="2">
         <v>26608.2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F36" s="3">
         <v>122.374</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G36" s="3">
         <v>125.398</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H36" s="2">
         <v>18299</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I36" s="2">
         <v>14953.2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J36" s="2">
         <v>3414</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K36" s="2">
         <v>1335.7</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L36" s="2">
         <v>2076.3000000000002</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M36" s="2">
         <v>4474.5</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N36" s="2">
         <v>1645.5</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O36" s="2">
         <v>2829</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P36" s="3">
         <v>289.291</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>46022</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B37" s="2">
         <v>26946.1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C37" s="2">
         <v>21374.3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D37" s="2">
         <v>21307.4</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E37" s="2">
         <v>26868.400000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F37" s="3">
         <v>123.01</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G37" s="3">
         <v>126.068</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H37" s="2">
         <v>18508.7</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I37" s="2">
         <v>15046.5</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J37" s="2">
         <v>3421</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K37" s="2">
         <v>1336.6</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L37" s="2">
         <v>2082.1999999999998</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M37" s="2">
         <v>4515.3999999999996</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N37" s="2">
         <v>1655.5</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O37" s="2">
         <v>2859.9</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P37" s="3">
         <v>291.00799999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>46112</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B38" s="2">
         <v>27224.6</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C38" s="2">
         <v>21479.9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D38" s="2">
         <v>21400.7</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E38" s="2">
         <v>27130.7</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F38" s="3">
         <v>123.65300000000001</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G38" s="3">
         <v>126.744</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H38" s="2">
         <v>18723.3</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I38" s="2">
         <v>15141.8</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J38" s="2">
         <v>3428</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K38" s="2">
         <v>1337.8</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L38" s="2">
         <v>2087.9</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M38" s="2">
         <v>4556.7</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N38" s="2">
         <v>1665.9</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O38" s="2">
         <v>2890.8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P38" s="3">
         <v>292.74700000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>46203</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B39" s="2">
         <v>27497.3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C39" s="2">
         <v>21579.1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D39" s="2">
         <v>21493.1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E39" s="2">
         <v>27394</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F39" s="3">
         <v>124.298</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G39" s="3">
         <v>127.425</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H39" s="2">
         <v>18921.400000000001</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I39" s="2">
         <v>15222.6</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J39" s="2">
         <v>3434.7</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K39" s="2">
         <v>1338.9</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L39" s="2">
         <v>2093.4</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M39" s="2">
         <v>4598.2</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N39" s="2">
         <v>1676.4</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O39" s="2">
         <v>2921.8</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P39" s="3">
         <v>294.50099999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>46295</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B40" s="2">
         <v>27767.1</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C40" s="2">
         <v>21673.9</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D40" s="2">
         <v>21585.4</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E40" s="2">
         <v>27659.8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F40" s="3">
         <v>124.947</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G40" s="3">
         <v>128.113</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H40" s="2">
         <v>19114.099999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I40" s="2">
         <v>15297.7</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J40" s="2">
         <v>3441.3</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K40" s="2">
         <v>1340</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L40" s="2">
         <v>2098.6999999999998</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M40" s="2">
         <v>4639.8999999999996</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N40" s="2">
         <v>1687.1</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O40" s="2">
         <v>2952.8</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P40" s="3">
         <v>296.27</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>46387</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B41" s="2">
         <v>28032</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C41" s="2">
         <v>21762.9</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D41" s="2">
         <v>21677.8</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E41" s="2">
         <v>27928.2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F41" s="3">
         <v>125.6</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G41" s="3">
         <v>128.80600000000001</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H41" s="2">
         <v>19302</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I41" s="2">
         <v>15367.8</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J41" s="2">
         <v>3447.8</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K41" s="2">
         <v>1341.1</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L41" s="2">
         <v>2103.9</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M41" s="2">
         <v>4681.7</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N41" s="2">
         <v>1697.8</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O41" s="2">
         <v>2983.9</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P41" s="3">
         <v>298.05500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>46477</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B42" s="2">
         <v>28293.200000000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C42" s="2">
         <v>21847.1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D42" s="2">
         <v>21770.3</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E42" s="2">
         <v>28199.4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F42" s="3">
         <v>126.259</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G42" s="3">
         <v>129.505</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H42" s="2">
         <v>19489.599999999999</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I42" s="2">
         <v>15436.2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J42" s="2">
         <v>3454.3</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K42" s="2">
         <v>1342.5</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L42" s="2">
         <v>2108.9</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M42" s="2">
         <v>4724</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N42" s="2">
         <v>1709</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O42" s="2">
         <v>3015</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P42" s="3">
         <v>299.85899999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>46568</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B43" s="2">
         <v>28554.5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C43" s="2">
         <v>21929.8</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D43" s="2">
         <v>21862.9</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E43" s="2">
         <v>28472.799999999999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F43" s="3">
         <v>126.919</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G43" s="3">
         <v>130.208</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H43" s="2">
         <v>19675.7</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I43" s="2">
         <v>15502.5</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J43" s="2">
         <v>3460.5</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K43" s="2">
         <v>1343.7</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L43" s="2">
         <v>2113.6999999999998</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M43" s="2">
         <v>4766.3</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N43" s="2">
         <v>1720.1</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O43" s="2">
         <v>3046.2</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P43" s="3">
         <v>301.67599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>46660</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B44" s="2">
         <v>28819.5</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C44" s="2">
         <v>22013.7</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D44" s="2">
         <v>21956.1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E44" s="2">
         <v>28749.1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F44" s="3">
         <v>127.584</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G44" s="3">
         <v>130.916</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H44" s="2">
         <v>19868.3</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I44" s="2">
         <v>15572.7</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J44" s="2">
         <v>3466.4</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K44" s="2">
         <v>1344.9</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L44" s="2">
         <v>2118.4</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M44" s="2">
         <v>4808.7</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N44" s="2">
         <v>1731.2</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O44" s="2">
         <v>3077.5</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P44" s="3">
         <v>303.51</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>46752</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B45" s="2">
         <v>29090.2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C45" s="2">
         <v>22100.1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D45" s="2">
         <v>22049.5</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E45" s="2">
         <v>29028.400000000001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F45" s="3">
         <v>128.25299999999999</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G45" s="3">
         <v>131.62899999999999</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H45" s="2">
         <v>20071.400000000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I45" s="2">
         <v>15649.8</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J45" s="2">
         <v>3472.2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K45" s="2">
         <v>1345.9</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L45" s="2">
         <v>2123</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M45" s="2">
         <v>4851.1000000000004</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N45" s="2">
         <v>1742.4</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O45" s="2">
         <v>3108.8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P45" s="3">
         <v>305.36</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>46843</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B46" s="2">
         <v>29365.5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C46" s="2">
         <v>22189.3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D46" s="2">
         <v>22143.3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E46" s="2">
         <v>29309.3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F46" s="3">
         <v>128.92099999999999</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G46" s="3">
         <v>132.34</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H46" s="2">
         <v>20279.400000000001</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I46" s="2">
         <v>15730</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J46" s="2">
         <v>3478</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K46" s="2">
         <v>1347.2</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L46" s="2">
         <v>2127.4</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M46" s="2">
         <v>4893.8999999999996</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N46" s="2">
         <v>1753.7</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O46" s="2">
         <v>3140.1</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P46" s="3">
         <v>307.21699999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>46934</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B47" s="2">
         <v>29644.5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C47" s="2">
         <v>22280.3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D47" s="2">
         <v>22238.3</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E47" s="2">
         <v>29593.1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F47" s="3">
         <v>129.59</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G47" s="3">
         <v>133.05199999999999</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H47" s="2">
         <v>20487.2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I47" s="2">
         <v>15809.2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J47" s="2">
         <v>3483.8</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K47" s="2">
         <v>1348.5</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L47" s="2">
         <v>2131.8000000000002</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M47" s="2">
         <v>4936.7</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N47" s="2">
         <v>1765.2</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O47" s="2">
         <v>3171.5</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P47" s="3">
         <v>309.08699999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>47026</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B48" s="2">
         <v>29923</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C48" s="2">
         <v>22369.7</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D48" s="2">
         <v>22334.3</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E48" s="2">
         <v>29879.7</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F48" s="3">
         <v>130.26</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G48" s="3">
         <v>133.76499999999999</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H48" s="2">
         <v>20691.2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I48" s="2">
         <v>15884.5</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J48" s="2">
         <v>3489.5</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K48" s="2">
         <v>1349.8</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L48" s="2">
         <v>2136</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M48" s="2">
         <v>4979.5</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N48" s="2">
         <v>1776.6</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O48" s="2">
         <v>3202.9</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P48" s="3">
         <v>310.971</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47118</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B49" s="2">
         <v>30202.6</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C49" s="2">
         <v>22458.9</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D49" s="2">
         <v>22431.4</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E49" s="2">
         <v>30169.200000000001</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F49" s="3">
         <v>130.93100000000001</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G49" s="3">
         <v>134.47900000000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H49" s="2">
         <v>20894.7</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I49" s="2">
         <v>15958.5</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J49" s="2">
         <v>3495</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K49" s="2">
         <v>1351</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L49" s="2">
         <v>2140.1999999999998</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M49" s="2">
         <v>5022.3</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N49" s="2">
         <v>1787.9</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O49" s="2">
         <v>3234.4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P49" s="3">
         <v>312.86900000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>47208</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B50" s="2">
         <v>30483.1</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C50" s="2">
         <v>22548.1</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D50" s="2">
         <v>22529.4</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E50" s="2">
         <v>30461.200000000001</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F50" s="3">
         <v>131.60300000000001</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G50" s="3">
         <v>135.191</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H50" s="2">
         <v>21099.200000000001</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I50" s="2">
         <v>16032.5</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J50" s="2">
         <v>3500.6</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K50" s="2">
         <v>1352.4</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L50" s="2">
         <v>2144.3000000000002</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M50" s="2">
         <v>5065.3</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N50" s="2">
         <v>1799.4</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O50" s="2">
         <v>3265.9</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P50" s="3">
         <v>314.762</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>47299</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B51" s="2">
         <v>30763.1</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C51" s="2">
         <v>22635.8</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D51" s="2">
         <v>22628.1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E51" s="2">
         <v>30755.7</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F51" s="3">
         <v>132.274</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G51" s="3">
         <v>135.904</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H51" s="2">
         <v>21305</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I51" s="2">
         <v>16106.6</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J51" s="2">
         <v>3505.9</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K51" s="2">
         <v>1353.6</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L51" s="2">
         <v>2148.3000000000002</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M51" s="2">
         <v>5108.2</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N51" s="2">
         <v>1810.8</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O51" s="2">
         <v>3297.4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P51" s="3">
         <v>316.654</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>47391</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B52" s="2">
         <v>31042</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C52" s="2">
         <v>22721.599999999999</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D52" s="2">
         <v>22726.7</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E52" s="2">
         <v>31051.599999999999</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F52" s="3">
         <v>132.94800000000001</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G52" s="3">
         <v>136.61799999999999</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H52" s="2">
         <v>21506.6</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I52" s="2">
         <v>16176.7</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J52" s="2">
         <v>3511.1</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K52" s="2">
         <v>1354.8</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L52" s="2">
         <v>2152.3000000000002</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M52" s="2">
         <v>5151.2</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N52" s="2">
         <v>1822.2</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O52" s="2">
         <v>3329</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P52" s="3">
         <v>318.54700000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>47483</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B53" s="2">
         <v>31323.5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C53" s="2">
         <v>22808.2</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D53" s="2">
         <v>22825.1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E53" s="2">
         <v>31349.1</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F53" s="3">
         <v>133.62200000000001</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G53" s="3">
         <v>137.334</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H53" s="2">
         <v>21708.9</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I53" s="2">
         <v>16246.4</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J53" s="2">
         <v>3516.2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K53" s="2">
         <v>1355.8</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L53" s="2">
         <v>2156.1999999999998</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M53" s="2">
         <v>5194.2</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N53" s="2">
         <v>1833.4</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O53" s="2">
         <v>3360.8</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P53" s="3">
         <v>320.44</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>47573</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B54" s="2">
         <v>31605.8</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C54" s="2">
         <v>22894.2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D54" s="2">
         <v>22923.599999999999</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E54" s="2">
         <v>31648.400000000001</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F54" s="3">
         <v>134.297</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G54" s="3">
         <v>138.05099999999999</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H54" s="2">
         <v>21915.4</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I54" s="2">
         <v>16318.5</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J54" s="2">
         <v>3521.2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K54" s="2">
         <v>1356.8</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L54" s="2">
         <v>2160</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M54" s="2">
         <v>5237.3</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N54" s="2">
         <v>1844.6</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O54" s="2">
         <v>3392.7</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P54" s="3">
         <v>322.33199999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>47664</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B55" s="2">
         <v>31891.5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C55" s="2">
         <v>22981.7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D55" s="2">
         <v>23022.1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E55" s="2">
         <v>31949.1</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F55" s="3">
         <v>134.97399999999999</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G55" s="3">
         <v>138.76900000000001</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H55" s="2">
         <v>22126.1</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I55" s="2">
         <v>16392.8</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J55" s="2">
         <v>3526.2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K55" s="2">
         <v>1357.8</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L55" s="2">
         <v>2163.9</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M55" s="2">
         <v>5280.7</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N55" s="2">
         <v>1855.9</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O55" s="2">
         <v>3424.8</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P55" s="3">
         <v>324.226</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>47756</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B56" s="2">
         <v>32182.7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C56" s="2">
         <v>23072</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D56" s="2">
         <v>23120.6</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E56" s="2">
         <v>32251.7</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F56" s="3">
         <v>135.65199999999999</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G56" s="3">
         <v>139.488</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H56" s="2">
         <v>22342.1</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I56" s="2">
         <v>16470.099999999999</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J56" s="2">
         <v>3531.1</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K56" s="2">
         <v>1358.9</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L56" s="2">
         <v>2167.6999999999998</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M56" s="2">
         <v>5324.3</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N56" s="2">
         <v>1867.2</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O56" s="2">
         <v>3457.1</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P56" s="3">
         <v>326.12200000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>47848</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B57" s="2">
         <v>32479</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C57" s="2">
         <v>23164.6</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D57" s="2">
         <v>23219.4</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E57" s="2">
         <v>32556.400000000001</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F57" s="3">
         <v>136.33099999999999</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G57" s="3">
         <v>140.209</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H57" s="2">
         <v>22561.5</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I57" s="2">
         <v>16549</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J57" s="2">
         <v>3536</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K57" s="2">
         <v>1359.8</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L57" s="2">
         <v>2171.5</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M57" s="2">
         <v>5368.2</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N57" s="2">
         <v>1878.6</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O57" s="2">
         <v>3489.6</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P57" s="3">
         <v>328.017</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>47938</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B58" s="2">
         <v>32781.1</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C58" s="2">
         <v>23260.3</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D58" s="2">
         <v>23318.3</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E58" s="2">
         <v>32863.199999999997</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F58" s="3">
         <v>137.011</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G58" s="3">
         <v>140.93100000000001</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H58" s="2">
         <v>22788.2</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I58" s="2">
         <v>16632.3</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J58" s="2">
         <v>3540.8</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K58" s="2">
         <v>1360.7</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L58" s="2">
         <v>2175.1999999999998</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M58" s="2">
         <v>5412.4</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N58" s="2">
         <v>1890.1</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O58" s="2">
         <v>3522.3</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P58" s="3">
         <v>329.91500000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>48029</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B59" s="2">
         <v>33084.300000000003</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C59" s="2">
         <v>23355.4</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D59" s="2">
         <v>23417.4</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E59" s="2">
         <v>33172</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F59" s="3">
         <v>137.69200000000001</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G59" s="3">
         <v>141.65600000000001</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H59" s="2">
         <v>23016</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I59" s="2">
         <v>16715.5</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J59" s="2">
         <v>3545.6</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K59" s="2">
         <v>1361.6</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L59" s="2">
         <v>2179</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M59" s="2">
         <v>5456.9</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N59" s="2">
         <v>1901.6</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O59" s="2">
         <v>3555.3</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P59" s="3">
         <v>331.815</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>48121</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B60" s="2">
         <v>33389.199999999997</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C60" s="2">
         <v>23450.400000000001</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D60" s="2">
         <v>23516.400000000001</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E60" s="2">
         <v>33482.6</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F60" s="3">
         <v>138.375</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G60" s="3">
         <v>142.38200000000001</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H60" s="2">
         <v>23245.7</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I60" s="2">
         <v>16799</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J60" s="2">
         <v>3550.3</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K60" s="2">
         <v>1362.5</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L60" s="2">
         <v>2182.6999999999998</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M60" s="2">
         <v>5501.7</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N60" s="2">
         <v>1913.3</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O60" s="2">
         <v>3588.4</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P60" s="3">
         <v>333.71899999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>48213</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B61" s="2">
         <v>33695.9</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C61" s="2">
         <v>23545.3</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D61" s="2">
         <v>23615.3</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E61" s="2">
         <v>33795</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F61" s="3">
         <v>139.059</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G61" s="3">
         <v>143.11099999999999</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H61" s="2">
         <v>23476.1</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I61" s="2">
         <v>16882.099999999999</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J61" s="2">
         <v>3555.2</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K61" s="2">
         <v>1363.5</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L61" s="2">
         <v>2186.3000000000002</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M61" s="2">
         <v>5547</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N61" s="2">
         <v>1925.2</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O61" s="2">
         <v>3621.8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P61" s="3">
         <v>335.62799999999999</v>
       </c>
     </row>
